--- a/assets/data/20250502_trend_summary.xlsx
+++ b/assets/data/20250502_trend_summary.xlsx
@@ -454,396 +454,396 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Keyword </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Keyword Count </t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Short Summary </t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Source URL </t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Detailed Summary </t>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Keyword Count</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Short Summary</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Source URL</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Detailed Summary</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>---------</t>
+          <t xml:space="preserve"> 新质生产力 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>---------------</t>
+          <t xml:space="preserve"> 37 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>----------------</t>
+          <t xml:space="preserve"> 国务院发布《关于加快发展新质生产力的指导意见》，提出五大重点任务，建立健全新质生产力发展的体制机制 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>------------</t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/30/content_6938271.htm </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-------------------</t>
+          <t xml:space="preserve"> 4月30日，国务院发布《关于加快发展新质生产力的指导意见》，明确提出到2027年，新质生产力发展取得重要突破，科技创新和产业创新能力显著增强；到2035年，新质生产力发展达到更高水平。文件确定五大重点任务：加快科技创新，优化产业结构，促进区域协调发展，深化改革开放，完善体制机制。尤其强调了人工智能、量子信息、集成电路等前沿领域的突破，并提出科技、产业、人才一体化布局。 </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 新质生产力 </t>
+          <t xml:space="preserve"> 科技创新政策 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37 </t>
+          <t xml:space="preserve"> 31 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院发布《关于加快发展新质生产力的指导意见》，提出五大重点任务，建立健全新质生产力发展的体制机制 </t>
+          <t xml:space="preserve"> 科技部、发改委联合印发《科技创新支撑引领高质量发展三年行动计划(2025-2027年)》，设立19个重点工程 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/30/content_6938271.htm </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250428_192746.html </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月30日，国务院发布《关于加快发展新质生产力的指导意见》，明确提出到2027年，新质生产力发展取得重要突破，科技创新和产业创新能力显著增强；到2035年，新质生产力发展达到更高水平。文件确定五大重点任务：加快科技创新，优化产业结构，促进区域协调发展，深化改革开放，完善体制机制。尤其强调了人工智能、量子信息、集成电路等前沿领域的突破，并提出科技、产业、人才一体化布局。 </t>
+          <t xml:space="preserve"> 4月28日，科技部、国家发改委联合印发《科技创新支撑引领高质量发展三年行动计划(2025-2027年)》，设立基础研究强化、关键核心技术攻关、产业创新能力提升等19个重点工程。计划提出，到2027年，基础研究经费投入占研发经费比重达到10%以上，国家战略科技力量体系进一步完善，制造业研发投入强度达到2.3%。同时明确了各部门职责分工和绩效评估机制，强调了中央财政科技投入的稳定增长。 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技创新政策 </t>
+          <t xml:space="preserve"> 人工智能 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31 </t>
+          <t xml:space="preserve"> 29 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部、发改委联合印发《科技创新支撑引领高质量发展三年行动计划(2025-2027年)》，设立19个重点工程 </t>
+          <t xml:space="preserve"> 工信部发布《人工智能与实体经济深度融合发展规划(2025-2030年)》，提出六大融合发展任务 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250428_192746.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/zwgk/wjfb/tz/art/2025/art_7d58e1fca3b446148c136ec2dd3dce27.html </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月28日，科技部、国家发改委联合印发《科技创新支撑引领高质量发展三年行动计划(2025-2027年)》，设立基础研究强化、关键核心技术攻关、产业创新能力提升等19个重点工程。计划提出，到2027年，基础研究经费投入占研发经费比重达到10%以上，国家战略科技力量体系进一步完善，制造业研发投入强度达到2.3%。同时明确了各部门职责分工和绩效评估机制，强调了中央财政科技投入的稳定增长。 </t>
+          <t xml:space="preserve"> 4月26日，工信部发布《人工智能与实体经济深度融合发展规划(2025-2030年)》，确定了六大任务：加强产业需求牵引的AI技术攻关、推动AI与传统产业协同创新、加快构建AI产业生态、提升制造业智能化水平、加强AI公共基础设施建设、健全AI融合标准和安全体系。规划提出到2030年，我国人工智能与实体经济融合将进入世界前列，培育50家以上AI与实体经济融合领军企业，打造100个以上融合发展示范区，总体融合指数达到80。 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人工智能 </t>
+          <t xml:space="preserve"> 创新驱动发展 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29 </t>
+          <t xml:space="preserve"> 28 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部发布《人工智能与实体经济深度融合发展规划(2025-2030年)》，提出六大融合发展任务 </t>
+          <t xml:space="preserve"> 中共中央政治局4月26日召开会议，研究部署加快实施创新驱动发展战略 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/zwgk/wjfb/tz/art/2025/art_7d58e1fca3b446148c136ec2dd3dce27.html </t>
+          <t xml:space="preserve"> http://www.xinhuanet.com/politics/2025-04/26/c_1136112587.htm </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月26日，工信部发布《人工智能与实体经济深度融合发展规划(2025-2030年)》，确定了六大任务：加强产业需求牵引的AI技术攻关、推动AI与传统产业协同创新、加快构建AI产业生态、提升制造业智能化水平、加强AI公共基础设施建设、健全AI融合标准和安全体系。规划提出到2030年，我国人工智能与实体经济融合将进入世界前列，培育50家以上AI与实体经济融合领军企业，打造100个以上融合发展示范区，总体融合指数达到80。 </t>
+          <t xml:space="preserve"> 中共中央政治局4月26日召开会议，专题研究部署加快实施创新驱动发展战略，强调要把创新驱动作为国家发展的核心战略。会议指出，要系统谋划基础研究、应用研究、技术创新、产业创新，强化国家战略科技力量，支持领军企业牵头组建创新联合体。会议要求优化区域创新布局，完善科技成果转化激励机制，深化科技管理体制改革，建设全球创新人才高地。会议还强调国际科技合作的重要性，提出要积极融入全球创新网络。 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 创新驱动发展 </t>
+          <t xml:space="preserve"> 量子通信 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28 </t>
+          <t xml:space="preserve"> 24 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中共中央政治局4月26日召开会议，研究部署加快实施创新驱动发展战略 </t>
+          <t xml:space="preserve"> 国家"十四五"科技发展专项计划重大项目——"全球量子通信网络"在上海启动 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.xinhuanet.com/politics/2025-04/26/c_1136112587.htm </t>
+          <t xml:space="preserve"> http://www.stdaily.com/index/kejixinwen/202505/02/content_1373629.shtml </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中共中央政治局4月26日召开会议，专题研究部署加快实施创新驱动发展战略，强调要把创新驱动作为国家发展的核心战略。会议指出，要系统谋划基础研究、应用研究、技术创新、产业创新，强化国家战略科技力量，支持领军企业牵头组建创新联合体。会议要求优化区域创新布局，完善科技成果转化激励机制，深化科技管理体制改革，建设全球创新人才高地。会议还强调国际科技合作的重要性，提出要积极融入全球创新网络。 </t>
+          <t xml:space="preserve"> 5月2日，国家"十四五"科技发展专项计划重大项目——"全球量子通信网络"在上海启动。该项目由中国科学技术大学牵头，联合30多家研究机构和企业共同实施，总投资超过50亿元。项目将建设覆盖全国主要城市的量子通信骨干网，研发新一代量子密钥分发技术，实现星地一体化量子通信，并拓展国际量子通信合作。预计2027年完成主体建设，这将显著提升我国信息安全保障能力和量子信息产业国际竞争力。 </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子通信 </t>
+          <t xml:space="preserve"> 科技成果转化 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24 </t>
+          <t xml:space="preserve"> 23 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家"十四五"科技发展专项计划重大项目——"全球量子通信网络"在上海启动 </t>
+          <t xml:space="preserve"> 科技部、财政部联合发布《科技成果转化引导基金管理办法》，设立1000亿元国家级科技成果转化引导基金 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.stdaily.com/index/kejixinwen/202505/02/content_1373629.shtml </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/zcjd/202504/t20250427_192738.html </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5月2日，国家"十四五"科技发展专项计划重大项目——"全球量子通信网络"在上海启动。该项目由中国科学技术大学牵头，联合30多家研究机构和企业共同实施，总投资超过50亿元。项目将建设覆盖全国主要城市的量子通信骨干网，研发新一代量子密钥分发技术，实现星地一体化量子通信，并拓展国际量子通信合作。预计2027年完成主体建设，这将显著提升我国信息安全保障能力和量子信息产业国际竞争力。 </t>
+          <t xml:space="preserve"> 4月27日，科技部、财政部联合发布《科技成果转化引导基金管理办法》，宣布设立规模1000亿元的国家级科技成果转化引导基金。基金采取"母基金+直投"模式，中央财政出资400亿元，带动社会资本600亿元，重点支持硬科技成果转化和产业化。基金将聚焦人工智能、量子信息、集成电路、生物医药等战略性新兴产业和未来产业，支持科技型中小企业创新发展。办法还明确了基金治理结构、投资方向、绩效评价等内容，强调市场化运作和风险控制。 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技成果转化 </t>
+          <t xml:space="preserve"> 战略新兴产业 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 23 </t>
+          <t xml:space="preserve"> 21 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部、财政部联合发布《科技成果转化引导基金管理办法》，设立1000亿元国家级科技成果转化引导基金 </t>
+          <t xml:space="preserve"> 国家发改委发布《战略性新兴产业集群培育指南》，确定七大领域重点产业集群 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/zcjd/202504/t20250427_192738.html </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/ghwb/202504/t20250429_1428760.html </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月27日，科技部、财政部联合发布《科技成果转化引导基金管理办法》，宣布设立规模1000亿元的国家级科技成果转化引导基金。基金采取"母基金+直投"模式，中央财政出资400亿元，带动社会资本600亿元，重点支持硬科技成果转化和产业化。基金将聚焦人工智能、量子信息、集成电路、生物医药等战略性新兴产业和未来产业，支持科技型中小企业创新发展。办法还明确了基金治理结构、投资方向、绩效评价等内容，强调市场化运作和风险控制。 </t>
+          <t xml:space="preserve"> 4月29日，国家发改委发布《战略性新兴产业集群培育指南》，明确了新一代信息技术、高端装备制造、新材料、生物医药、新能源、节能环保和数字创意七大领域的重点产业集群培育方向。指南提出到2027年，培育50个具有全球影响力的战略性新兴产业集群，战略性新兴产业增加值占GDP比重提高到20%以上。指南强调推动产业链协同创新，加强集群空间布局优化，健全金融支持体系，并提出部省联动的工作机制。 </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 战略新兴产业 </t>
+          <t xml:space="preserve"> 产学研结合 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 21 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委发布《战略性新兴产业集群培育指南》，确定七大领域重点产业集群 </t>
+          <t xml:space="preserve"> 教育部、科技部等六部门联合发布《关于深化产教融合 促进科教融汇的实施意见》 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/ghwb/202504/t20250429_1428760.html </t>
+          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xxgk/moe_1777/moe_1778/202504/t20250430_1128762.html </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月29日，国家发改委发布《战略性新兴产业集群培育指南》，明确了新一代信息技术、高端装备制造、新材料、生物医药、新能源、节能环保和数字创意七大领域的重点产业集群培育方向。指南提出到2027年，培育50个具有全球影响力的战略性新兴产业集群，战略性新兴产业增加值占GDP比重提高到20%以上。指南强调推动产业链协同创新，加强集群空间布局优化，健全金融支持体系，并提出部省联动的工作机制。 </t>
+          <t xml:space="preserve"> 4月30日，教育部、科技部等六部门联合发布《关于深化产教融合 促进科教融汇的实施意见》，提出构建"六位一体"产教融合新格局。意见要求推进高校与行业企业共建产业学院、联合实验室和创新中心，加强关键核心技术攻关和前沿技术探索。同时提出，支持企业深度参与高校学科专业建设和人才培养，建立校企联合培养研究生机制。意见还提出建设100个产教融合示范园区和1000个产教融合型企业，推动产教协同创新体系建设。 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 产学研结合 </t>
+          <t xml:space="preserve"> 国家创新体系 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 19 </t>
+          <t xml:space="preserve"> 18 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 教育部、科技部等六部门联合发布《关于深化产教融合 促进科教融汇的实施意见》 </t>
+          <t xml:space="preserve"> 中共中央办公厅、国务院办公厅印发《关于完善国家创新体系 提升科技创新效能的若干措施》 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xxgk/moe_1777/moe_1778/202504/t20250430_1128762.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-04/28/content_6938145.htm </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月30日，教育部、科技部等六部门联合发布《关于深化产教融合 促进科教融汇的实施意见》，提出构建"六位一体"产教融合新格局。意见要求推进高校与行业企业共建产业学院、联合实验室和创新中心，加强关键核心技术攻关和前沿技术探索。同时提出，支持企业深度参与高校学科专业建设和人才培养，建立校企联合培养研究生机制。意见还提出建设100个产教融合示范园区和1000个产教融合型企业，推动产教协同创新体系建设。 </t>
+          <t xml:space="preserve"> 4月28日，中共中央办公厅、国务院办公厅印发《关于完善国家创新体系 提升科技创新效能的若干措施》，提出六个方面共20项重点措施。文件强调加强基础研究，完善国家实验室布局，优化科技资源配置，建立健全多元化科技投入体系。措施包括：实施基础研究十年规划，健全稳定支持与竞争性支持相结合的基础研究投入机制，推动企业加大研发投入，改革科技评价体系，加强科研诚信建设，完善科技人才激励政策等，旨在构建协同高效的国家创新体系。 </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家创新体系 </t>
+          <t xml:space="preserve"> 数字经济政策 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18 </t>
+          <t xml:space="preserve"> 17 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中共中央办公厅、国务院办公厅印发《关于完善国家创新体系 提升科技创新效能的若干措施》 </t>
+          <t xml:space="preserve"> 国家发改委、网信办等八部门联合印发《数字经济新质生产力发展行动方案(2025-2027年)》 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-04/28/content_6938145.htm </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250429_1428766.html </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月28日，中共中央办公厅、国务院办公厅印发《关于完善国家创新体系 提升科技创新效能的若干措施》，提出六个方面共20项重点措施。文件强调加强基础研究，完善国家实验室布局，优化科技资源配置，建立健全多元化科技投入体系。措施包括：实施基础研究十年规划，健全稳定支持与竞争性支持相结合的基础研究投入机制，推动企业加大研发投入，改革科技评价体系，加强科研诚信建设，完善科技人才激励政策等，旨在构建协同高效的国家创新体系。 </t>
+          <t xml:space="preserve"> 4月29日，国家发改委联合七部门印发《数字经济新质生产力发展行动方案(2025-2027年)》，提出到2027年，数字经济新质生产力发展取得显著成效，数字经济核心产业增加值占GDP比重达到15%。方案部署八大任务：提升关键核心技术创新能力、加快数字产业化布局、深入推进产业数字化转型、创新数字要素价值实现机制、建设融合创新的数字生态、构建安全高效的数字基础设施、深化数字领域国际合作、完善数字经济治理体系。方案还确定了算力基础设施提升、产业数字化转型等九大工程。 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 数字经济政策 </t>
+          <t xml:space="preserve"> 国际创新平台 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17 </t>
+          <t xml:space="preserve"> 16 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委、网信办等八部门联合印发《数字经济新质生产力发展行动方案(2025-2027年)》 </t>
+          <t xml:space="preserve"> 科技部宣布启动"全球开放科学中心"建设，打造国际科技合作新平台 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250429_1428766.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202504/t20250501_192759.html </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月29日，国家发改委联合七部门印发《数字经济新质生产力发展行动方案(2025-2027年)》，提出到2027年，数字经济新质生产力发展取得显著成效，数字经济核心产业增加值占GDP比重达到15%。方案部署八大任务：提升关键核心技术创新能力、加快数字产业化布局、深入推进产业数字化转型、创新数字要素价值实现机制、建设融合创新的数字生态、构建安全高效的数字基础设施、深化数字领域国际合作、完善数字经济治理体系。方案还确定了算力基础设施提升、产业数字化转型等九大工程。 </t>
+          <t xml:space="preserve"> 5月1日，科技部宣布启动"全球开放科学中心"建设计划，旨在打造面向全球的科技创新合作平台。该中心将设立在上海张江科学城，总投资150亿元，计划到2027年建成并投入使用。中心将聚焦量子科学、脑科学、合成生物学等前沿领域，吸引全球科学家开展合作研究。同时，中心将建立开放共享的大科学装置和科研数据平台，实施国际青年科学家计划，每年支持300名外国青年科学家来华开展研究。该计划是中国深度参与全球科技治理、推动构建人类命运共同体的重要举措。 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国际创新平台 </t>
+          <t xml:space="preserve"> 半导体 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 16 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部宣布启动"全球开放科学中心"建设，打造国际科技合作新平台 </t>
+          <t xml:space="preserve"> 上海宣布建设"东方芯港"，打造全球领先的集成电路创新高地 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202504/t20250501_192759.html </t>
+          <t xml:space="preserve"> https://www.thepaper.cn/newsDetail_forward_23751094 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5月1日，科技部宣布启动"全球开放科学中心"建设计划，旨在打造面向全球的科技创新合作平台。该中心将设立在上海张江科学城，总投资150亿元，计划到2027年建成并投入使用。中心将聚焦量子科学、脑科学、合成生物学等前沿领域，吸引全球科学家开展合作研究。同时，中心将建立开放共享的大科学装置和科研数据平台，实施国际青年科学家计划，每年支持300名外国青年科学家来华开展研究。该计划是中国深度参与全球科技治理、推动构建人类命运共同体的重要举措。 </t>
+          <t xml:space="preserve"> 4月29日，上海市政府正式宣布建设"东方芯港"集成电路创新高地，总投资超过3000亿元，规划面积67平方公里。"东方芯港"将聚焦先进工艺、特色工艺、先进封装、关键装备和材料等领域，构建完整的集成电路产业创新生态。计划到2027年，集聚3-5家国际一流芯片制造企业，培育10家以上"专精特新"小巨人企业，集成电路产业规模突破8000亿元。同时将设立500亿元集成电路产业发展基金，实施人才特殊政策，推动产学研深度融合。这是落实国家集成电路产业创新发展战略的重要举措。 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 半导体 </t>
+          <t xml:space="preserve"> 人才引进政策 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 15 </t>
+          <t xml:space="preserve"> 14 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 上海宣布建设"东方芯港"，打造全球领先的集成电路创新高地 </t>
+          <t xml:space="preserve"> 人社部、科技部联合印发《国际高端科技人才引进计划(2025-2030年)》 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.thepaper.cn/newsDetail_forward_23751094 </t>
+          <t xml:space="preserve"> http://www.mohrss.gov.cn/SYrlzyhshbzb/dongtaixinwen/buneiyaowen/202504/t20250429_507623.html </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月29日，上海市政府正式宣布建设"东方芯港"集成电路创新高地，总投资超过3000亿元，规划面积67平方公里。"东方芯港"将聚焦先进工艺、特色工艺、先进封装、关键装备和材料等领域，构建完整的集成电路产业创新生态。计划到2027年，集聚3-5家国际一流芯片制造企业，培育10家以上"专精特新"小巨人企业，集成电路产业规模突破8000亿元。同时将设立500亿元集成电路产业发展基金，实施人才特殊政策，推动产学研深度融合。这是落实国家集成电路产业创新发展战略的重要举措。 </t>
+          <t xml:space="preserve"> 4月29日，人社部、科技部联合印发《国际高端科技人才引进计划(2025-2030年)》，提出未来六年引进2000名顶尖科学家和高端人才团队。计划重点面向人工智能、量子信息、集成电路、生物医药等战略领域，采取"高薪+股权+平台"的综合激励机制。引进人才可享受"绿色通道"办理永久居留权，子女入学、医疗保障等配套服务。计划设立200亿元专项资金，对引进人才给予科研经费支持。各省市将建立协同联动机制，形成全国统一、分工协作的国际人才引进网络。 </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人才引进政策 </t>
+          <t xml:space="preserve"> 量子计算 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -853,78 +853,78 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人社部、科技部联合印发《国际高端科技人才引进计划(2025-2030年)》 </t>
+          <t xml:space="preserve"> 量子计算新突破：中国科学家实现112量子比特可编程超导量子计算原型机 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.mohrss.gov.cn/SYrlzyhshbzb/dongtaixinwen/buneiyaowen/202504/t20250429_507623.html </t>
+          <t xml:space="preserve"> https://www.cas.cn/yw/202505/t20250501_4964384.shtml </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月29日，人社部、科技部联合印发《国际高端科技人才引进计划(2025-2030年)》，提出未来六年引进2000名顶尖科学家和高端人才团队。计划重点面向人工智能、量子信息、集成电路、生物医药等战略领域，采取"高薪+股权+平台"的综合激励机制。引进人才可享受"绿色通道"办理永久居留权，子女入学、医疗保障等配套服务。计划设立200亿元专项资金，对引进人才给予科研经费支持。各省市将建立协同联动机制，形成全国统一、分工协作的国际人才引进网络。 </t>
+          <t xml:space="preserve"> 5月1日，中国科学院宣布，由中科院物理研究所潘建伟团队研发的112量子比特可编程超导量子计算原型机"九章三号"研制成功，实现了量子计算领域的重大突破。该原型机在量子纠错、量子优越性验证等方面取得关键进展，为构建实用化量子计算机奠定了基础。"九章三号"的量子比特相干时间达到50微秒，双比特门保真度超过99.5%，显著优于国际同类系统。项目团队同时开发了完整的量子计算软件栈，支持多种量子算法的实现。这一突破进一步缩小了中国与国际领先水平的差距，对推动量子信息技术发展具有重要意义。 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子计算 </t>
+          <t xml:space="preserve"> 知识产权保护 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 14 </t>
+          <t xml:space="preserve"> 13 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 量子计算新突破：中国科学家实现112量子比特可编程超导量子计算原型机 </t>
+          <t xml:space="preserve"> 国务院印发《知识产权强国建设纲要(2025-2035年)》，全面加强知识产权保护 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cas.cn/yw/202505/t20250501_4964384.shtml </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/26/content_6937892.htm </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5月1日，中国科学院宣布，由中科院物理研究所潘建伟团队研发的112量子比特可编程超导量子计算原型机"九章三号"研制成功，实现了量子计算领域的重大突破。该原型机在量子纠错、量子优越性验证等方面取得关键进展，为构建实用化量子计算机奠定了基础。"九章三号"的量子比特相干时间达到50微秒，双比特门保真度超过99.5%，显著优于国际同类系统。项目团队同时开发了完整的量子计算软件栈，支持多种量子算法的实现。这一突破进一步缩小了中国与国际领先水平的差距，对推动量子信息技术发展具有重要意义。 </t>
+          <t xml:space="preserve"> 4月26日，国务院印发《知识产权强国建设纲要(2025-2035年)》，提出到2035年基本建成知识产权强国的总体目标。纲要部署了六大任务：建设高标准知识产权保护体系、构建便民利民知识产权公共服务体系、健全知识产权市场运行机制、完善知识产权治理体系、深化知识产权国际合作、加强知识产权人才队伍建设。纲要特别强调加强新兴领域和新业态知识产权保护，包括人工智能生成内容、大数据、开源技术等新领域的保护规则制定。纲要还提出提高侵权赔偿标准，加大对反复侵权、恶意侵权的惩处力度。 </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 知识产权保护 </t>
+          <t xml:space="preserve"> 科技金融支持 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13 </t>
+          <t xml:space="preserve"> 12 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国务院印发《知识产权强国建设纲要(2025-2035年)》，全面加强知识产权保护 </t>
+          <t xml:space="preserve"> 人民银行、银保监会联合发布《关于金融支持科技创新发展的指导意见》 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/202504/26/content_6937892.htm </t>
+          <t xml:space="preserve"> http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/4825935/index.html </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月26日，国务院印发《知识产权强国建设纲要(2025-2035年)》，提出到2035年基本建成知识产权强国的总体目标。纲要部署了六大任务：建设高标准知识产权保护体系、构建便民利民知识产权公共服务体系、健全知识产权市场运行机制、完善知识产权治理体系、深化知识产权国际合作、加强知识产权人才队伍建设。纲要特别强调加强新兴领域和新业态知识产权保护，包括人工智能生成内容、大数据、开源技术等新领域的保护规则制定。纲要还提出提高侵权赔偿标准，加大对反复侵权、恶意侵权的惩处力度。 </t>
+          <t xml:space="preserve"> 4月30日，人民银行、银保监会联合发布《关于金融支持科技创新发展的指导意见》，提出加大对科技创新的金融支持力度。意见要求银行业金融机构设立科创金融专营机构，开发针对科技企业的信贷产品，推广知识产权质押、股权质押等融资模式。鼓励保险机构开发科技保险产品，为企业研发和成果转化提供风险保障。支持符合条件的科技企业上市融资，拓宽科技创新债券市场。同时，意见提出设立总规模2000亿元的科技创新再贷款，引导金融机构加大对科技领域的信贷投放，重点支持集成电路、人工智能等关键领域。 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技金融支持 </t>
+          <t xml:space="preserve"> 6G通信 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -934,51 +934,51 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人民银行、银保监会联合发布《关于金融支持科技创新发展的指导意见》 </t>
+          <t xml:space="preserve"> 工信部发布《6G技术研发与产业推进计划(2025-2030年)》，系统部署6G发展路线图 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/4825935/index.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/zwgk/wjfb/gh/art/2025/art_59a6db81e05f46bba643fd5f2b99ff0e.html </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月30日，人民银行、银保监会联合发布《关于金融支持科技创新发展的指导意见》，提出加大对科技创新的金融支持力度。意见要求银行业金融机构设立科创金融专营机构，开发针对科技企业的信贷产品，推广知识产权质押、股权质押等融资模式。鼓励保险机构开发科技保险产品，为企业研发和成果转化提供风险保障。支持符合条件的科技企业上市融资，拓宽科技创新债券市场。同时，意见提出设立总规模2000亿元的科技创新再贷款，引导金融机构加大对科技领域的信贷投放，重点支持集成电路、人工智能等关键领域。 </t>
+          <t xml:space="preserve"> 4月27日，工信部发布《6G技术研发与产业推进计划(2025-2030年)》，提出分三阶段推进6G技术研发与产业化。计划提出，到2026年完成6G愿景与需求研究，2028年完成关键技术验证，2030年形成6G技术标准并启动商用。计划确定了太赫兹通信、空天地一体化网络、网络智能化等十大关键技术攻关方向，提出建设国家6G技术创新中心和产业创新联盟。计划还强调国际合作，提出积极参与国际标准制定，推动全球6G技术研发协同。工信部将设立专项资金，支持6G研发重大项目，推动形成自主可控的6G产业生态。 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6G通信 </t>
+          <t xml:space="preserve"> 科技体制改革 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 12 </t>
+          <t xml:space="preserve"> 11 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 工信部发布《6G技术研发与产业推进计划(2025-2030年)》，系统部署6G发展路线图 </t>
+          <t xml:space="preserve"> 中共中央、国务院印发《关于深化科技体制改革 加快建设创新型国家的意见》 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/zwgk/wjfb/gh/art/2025/art_59a6db81e05f46bba643fd5f2b99ff0e.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-04/29/content_6938169.htm </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月27日，工信部发布《6G技术研发与产业推进计划(2025-2030年)》，提出分三阶段推进6G技术研发与产业化。计划提出，到2026年完成6G愿景与需求研究，2028年完成关键技术验证，2030年形成6G技术标准并启动商用。计划确定了太赫兹通信、空天地一体化网络、网络智能化等十大关键技术攻关方向，提出建设国家6G技术创新中心和产业创新联盟。计划还强调国际合作，提出积极参与国际标准制定，推动全球6G技术研发协同。工信部将设立专项资金，支持6G研发重大项目，推动形成自主可控的6G产业生态。 </t>
+          <t xml:space="preserve"> 4月29日，中共中央、国务院印发《关于深化科技体制改革 加快建设创新型国家的意见》，提出七个方面的改革举措。意见强调完善科技创新治理体系，深化科研项目和经费管理改革，实行"揭榜挂帅"等新型举国体制。改革科技评价体系，对基础研究实行长周期评价，建立以创新质量和贡献为导向的评价机制。推进科研院所改革，强化企业创新主体地位，加强产学研深度融合。同时，加强科技人才队伍建设，完善人才评价激励机制，赋予科研人员更大技术路线决定权和经费使用自主权。意见还提出深化科技开放合作，积极融入全球创新网络。 </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技体制改革 </t>
+          <t xml:space="preserve"> 生物医药 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -988,103 +988,76 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 中共中央、国务院印发《关于深化科技体制改革 加快建设创新型国家的意见》 </t>
+          <t xml:space="preserve"> 国家发改委、科技部等部门联合发布《生物制造产业高质量发展行动计划(2025-2027年)》 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.gov.cn/zhengce/2025-04/29/content_6938169.htm </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250430_1428781.html </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月29日，中共中央、国务院印发《关于深化科技体制改革 加快建设创新型国家的意见》，提出七个方面的改革举措。意见强调完善科技创新治理体系，深化科研项目和经费管理改革，实行"揭榜挂帅"等新型举国体制。改革科技评价体系，对基础研究实行长周期评价，建立以创新质量和贡献为导向的评价机制。推进科研院所改革，强化企业创新主体地位，加强产学研深度融合。同时，加强科技人才队伍建设，完善人才评价激励机制，赋予科研人员更大技术路线决定权和经费使用自主权。意见还提出深化科技开放合作，积极融入全球创新网络。 </t>
+          <t xml:space="preserve"> 4月30日，国家发改委、科技部等部门联合发布《生物制造产业高质量发展行动计划(2025-2027年)》，提出到2027年形成2-3个世界级生物制造产业集群，产业规模突破3万亿元。计划部署四大任务：提升生物制造技术创新能力，推动生物制造产业化示范应用，构建生物制造产业集群，完善生物制造发展生态。重点领域包括生物医药、生物基材料、工业酶制剂、合成生物学等。计划提出实施生物制造关键技术攻关、示范应用推广、公共服务平台建设等五大工程，并设立500亿元生物制造产业发展基金，支持产业创新发展。 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 生物医药 </t>
+          <t xml:space="preserve"> 人工智能实验室 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11 </t>
+          <t xml:space="preserve"> 10 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 国家发改委、科技部等部门联合发布《生物制造产业高质量发展行动计划(2025-2027年)》 </t>
+          <t xml:space="preserve"> 科技部宣布启动建设10家国家人工智能创新应用实验室 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250430_1428781.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202504/t20250428_192745.html </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月30日，国家发改委、科技部等部门联合发布《生物制造产业高质量发展行动计划(2025-2027年)》，提出到2027年形成2-3个世界级生物制造产业集群，产业规模突破3万亿元。计划部署四大任务：提升生物制造技术创新能力，推动生物制造产业化示范应用，构建生物制造产业集群，完善生物制造发展生态。重点领域包括生物医药、生物基材料、工业酶制剂、合成生物学等。计划提出实施生物制造关键技术攻关、示范应用推广、公共服务平台建设等五大工程，并设立500亿元生物制造产业发展基金，支持产业创新发展。 </t>
+          <t xml:space="preserve"> 4月28日，科技部宣布启动建设10家国家人工智能创新应用实验室，覆盖制造、农业、医疗、教育、金融等重点领域。这些实验室将采取"揭榜挂帅"方式，由龙头企业牵头，联合高校、科研院所共建。实验室聚焦大模型应用创新、多模态感知、智能决策等关键技术，探索人工智能与实体经济深度融合的新模式、新业态。科技部将为每家实验室提供5-10亿元启动资金，支持开展关键核心技术攻关和应用示范。这是落实《新一代人工智能发展规划》的重要举措，将显著提升我国人工智能创新能力和应用水平。 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 人工智能实验室 </t>
+          <t xml:space="preserve"> 合成生物学 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10 </t>
+          <t xml:space="preserve"> 9 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 科技部宣布启动建设10家国家人工智能创新应用实验室 </t>
+          <t xml:space="preserve"> 科技部启动"合成生物学创新发展专项"，投入100亿元支持基础研究和产业化 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/kjbgz/202504/t20250428_192745.html </t>
+          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/kjjh/kjjhdt/202504/t20250501_192763.html </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4月28日，科技部宣布启动建设10家国家人工智能创新应用实验室，覆盖制造、农业、医疗、教育、金融等重点领域。这些实验室将采取"揭榜挂帅"方式，由龙头企业牵头，联合高校、科研院所共建。实验室聚焦大模型应用创新、多模态感知、智能决策等关键技术，探索人工智能与实体经济深度融合的新模式、新业态。科技部将为每家实验室提供5-10亿元启动资金，支持开展关键核心技术攻关和应用示范。这是落实《新一代人工智能发展规划》的重要举措，将显著提升我国人工智能创新能力和应用水平。 </t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 合成生物学 </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9 </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 科技部启动"合成生物学创新发展专项"，投入100亿元支持基础研究和产业化 </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/kjjh/kjjhdt/202504/t20250501_192763.html </t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t xml:space="preserve"> 5月1日，科技部正式启动"合成生物学创新发展专项"，计划5年投入100亿元，支持合成生物学基础研究、关键技术攻关和产业化应用。专项重点支持人工设计生物元件、生物系统设计与构建、基因编辑、代谢工程等方向的研究，推动在医药健康、绿色制造、农业、能源环保等领域的应用。专项将建设5个国家合成生物学研究中心和10个技术创新中心，构建合成生物学标准化和生物安全评价体系。同时，专项强调产学研协同创新，支持企业牵头组建创新联合体，促进科研成果转化应用。 </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1542,14 +1515,137 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>新质生产力</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>创新驱动发展</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>生物医药</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>生物医药</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>知识产权保护</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>合成生物学</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>生物医药</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1560,7 +1656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1583,10 +1679,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>---------</t>
+          <t>新质生产力</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>创新驱动发展</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>科技成果转化</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>量子通信</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>生物医药</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>国家创新体系</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>合成生物学</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>量子计算</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>知识产权保护</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>科技体制改革</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>1</v>
       </c>
     </row>
